--- a/Test Data/Smoke Pack Test Data.xlsx
+++ b/Test Data/Smoke Pack Test Data.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\New GIT\Supporttestcases\Test Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Cloud 01" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Cloud 02" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Cloud03" sheetId="3" r:id="rId6"/>
+    <sheet name="Cloud 01" sheetId="1" r:id="rId1"/>
+    <sheet name="Cloud 02" sheetId="2" r:id="rId2"/>
+    <sheet name="Cloud03" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Web Application URL</t>
   </si>
@@ -91,27 +99,36 @@
   </si>
   <si>
     <t>Body Rzr</t>
+  </si>
+  <si>
+    <t>Password12</t>
+  </si>
+  <si>
+    <t>Small A Traditional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,47 +136,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -349,24 +363,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.25"/>
-    <col customWidth="1" min="2" max="2" width="52.0"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -374,7 +393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -382,15 +401,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -398,7 +417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -406,7 +425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -414,7 +433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -422,7 +441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -430,7 +449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -438,15 +457,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -454,7 +473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -462,7 +481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -470,7 +489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -480,27 +499,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.25"/>
-    <col customWidth="1" min="2" max="2" width="52.0"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -516,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -532,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -540,7 +560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -548,7 +568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -556,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -564,7 +584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -572,7 +592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -580,7 +600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -588,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -596,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -604,7 +624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -614,27 +634,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.25"/>
-    <col customWidth="1" min="2" max="2" width="52.0"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -650,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -666,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -674,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -682,7 +703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -690,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -698,7 +719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -706,7 +727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -714,7 +735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -722,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -730,7 +751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -738,7 +759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -748,8 +769,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Data/Smoke Pack Test Data.xlsx
+++ b/Test Data/Smoke Pack Test Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud 01" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Web Application URL</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Branch User Password</t>
   </si>
   <si>
-    <t>password12</t>
-  </si>
-  <si>
     <t>Android Application path</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>ChannelType</t>
-  </si>
-  <si>
-    <t>Large A Beauty</t>
   </si>
   <si>
     <t>Sales Return Sales Person</t>
@@ -375,8 +369,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -406,95 +400,95 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +506,9 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -541,95 +537,95 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +643,9 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -676,95 +674,95 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Smoke Pack Test Data.xlsx
+++ b/Test Data/Smoke Pack Test Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>Web Application URL</t>
   </si>
@@ -95,10 +95,22 @@
     <t>Body Rzr</t>
   </si>
   <si>
-    <t>Password12</t>
-  </si>
-  <si>
     <t>Small A Traditional</t>
+  </si>
+  <si>
+    <t>https://cloud03-in.ivydms.com/web/DMS</t>
+  </si>
+  <si>
+    <t>https://cloud02-in.ivydms.com/web/DMS</t>
+  </si>
+  <si>
+    <t>APK File/IvyDMS_PNGIndia_1575_9922.apk</t>
+  </si>
+  <si>
+    <t>TNPKL-23-I000517</t>
+  </si>
+  <si>
+    <t>password12</t>
   </si>
 </sst>
 </file>
@@ -121,16 +133,23 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,15 +161,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,10 +389,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -379,7 +401,7 @@
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -395,23 +417,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -419,15 +441,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -435,7 +458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -443,7 +466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -451,43 +474,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -507,7 +530,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -521,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -537,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -593,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,7 +667,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -658,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
